--- a/results/cv_results/single_vs_multi_condition_comparison.xlsx
+++ b/results/cv_results/single_vs_multi_condition_comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>run_dir</t>
   </si>
@@ -61,9 +61,24 @@
     <t>f1_improvement_vs_multi</t>
   </si>
   <si>
+    <t>run_g1</t>
+  </si>
+  <si>
+    <t>run_g2</t>
+  </si>
+  <si>
     <t>run_g3</t>
   </si>
   <si>
+    <t>run_g4</t>
+  </si>
+  <si>
+    <t>run_g5</t>
+  </si>
+  <si>
+    <t>run_g6</t>
+  </si>
+  <si>
     <t>Single Rule</t>
   </si>
   <si>
@@ -76,10 +91,40 @@
     <t>double_AND</t>
   </si>
   <si>
+    <t>swh_min_waverys &gt; 0.64</t>
+  </si>
+  <si>
+    <t>anom_swe_min &gt; t1 AND anom_swh_max_waverys &gt; t2</t>
+  </si>
+  <si>
+    <t>anom_swh_p25_deseasonalized_detrended_rolling_mean_14_lag_5 &gt; -0.0271474840559687</t>
+  </si>
+  <si>
+    <t>anom_swh_min_waverys &gt; t1 AND anom_swh_max_waverys &gt; t2</t>
+  </si>
+  <si>
     <t>anom_swh_p80_swan &gt; 0.3175288322364742</t>
   </si>
   <si>
     <t>anom_swh_min_swan &gt; t1 AND swh_max_swan &gt; t2</t>
+  </si>
+  <si>
+    <t>swh_median_waverys &gt; 1.5142499999999994</t>
+  </si>
+  <si>
+    <t>swh_p80_swan &gt; t1 AND anom_swh_mean_deseasonalized_detrended &gt; t2</t>
+  </si>
+  <si>
+    <t>swh_p75_swan &gt; 2.26457132</t>
+  </si>
+  <si>
+    <t>swh_p80_swan &gt; t1 AND swh_max_swan &gt; t2</t>
+  </si>
+  <si>
+    <t>anom_swh_mean_waverys &gt; 0.32435546875</t>
+  </si>
+  <si>
+    <t>anom_swh_min_waverys &gt; t1 AND anom_swh_p80_swan &gt; t2</t>
   </si>
 </sst>
 </file>
@@ -437,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,46 +540,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>4267619.122</v>
+        <v>270463.885</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="H2">
-        <v>2341</v>
+        <v>2319</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0.151</v>
       </c>
       <c r="K2">
-        <v>0.483</v>
+        <v>0.723</v>
       </c>
       <c r="L2">
-        <v>0.926</v>
+        <v>0.92</v>
       </c>
       <c r="M2">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
-        <v>-59.902</v>
+        <v>-69.98099999999999</v>
       </c>
       <c r="O2">
-        <v>-30.601</v>
+        <v>-45.455</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -542,46 +587,516 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>81190.8</v>
+      </c>
+      <c r="F3">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>2483</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>0.449</v>
+      </c>
+      <c r="K3">
+        <v>0.468</v>
+      </c>
+      <c r="L3">
+        <v>0.98</v>
+      </c>
+      <c r="M3">
+        <v>0.458</v>
+      </c>
+      <c r="N3">
+        <v>69.98099999999999</v>
+      </c>
+      <c r="O3">
+        <v>83.333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>5842604.627</v>
+      </c>
+      <c r="F4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>1715</v>
+      </c>
+      <c r="H4">
+        <v>783</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0.024</v>
+      </c>
+      <c r="K4">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.324</v>
+      </c>
+      <c r="M4">
+        <v>0.047</v>
+      </c>
+      <c r="N4">
+        <v>-95.834</v>
+      </c>
+      <c r="O4">
+        <v>-84.004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>243425.902</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>2448</v>
+      </c>
+      <c r="I5">
+        <v>34</v>
+      </c>
+      <c r="J5">
+        <v>0.253</v>
+      </c>
+      <c r="K5">
+        <v>0.358</v>
+      </c>
+      <c r="L5">
+        <v>0.965</v>
+      </c>
+      <c r="M5">
+        <v>0.297</v>
+      </c>
+      <c r="N5">
+        <v>95.834</v>
+      </c>
+      <c r="O5">
+        <v>525.164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>4267619.122</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>158</v>
+      </c>
+      <c r="H6">
+        <v>2341</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0.151</v>
+      </c>
+      <c r="K6">
+        <v>0.483</v>
+      </c>
+      <c r="L6">
+        <v>0.926</v>
+      </c>
+      <c r="M6">
+        <v>0.23</v>
+      </c>
+      <c r="N6">
+        <v>-59.902</v>
+      </c>
+      <c r="O6">
+        <v>-36.066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>1711241.43</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>2245</v>
+      </c>
+      <c r="I7">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>0.313</v>
+      </c>
+      <c r="K7">
+        <v>0.42</v>
+      </c>
+      <c r="L7">
+        <v>0.968</v>
+      </c>
+      <c r="M7">
+        <v>0.359</v>
+      </c>
+      <c r="N7">
+        <v>59.902</v>
+      </c>
+      <c r="O7">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>3754155.9</v>
+      </c>
+      <c r="F8">
+        <v>198</v>
+      </c>
+      <c r="G8">
+        <v>155</v>
+      </c>
+      <c r="H8">
+        <v>2018</v>
+      </c>
+      <c r="I8">
+        <v>186</v>
+      </c>
+      <c r="J8">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.516</v>
+      </c>
+      <c r="L8">
+        <v>0.867</v>
+      </c>
+      <c r="M8">
+        <v>0.537</v>
+      </c>
+      <c r="N8">
+        <v>49.205</v>
+      </c>
+      <c r="O8">
+        <v>-2.679</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>5601398</v>
+      </c>
+      <c r="F9">
+        <v>249</v>
+      </c>
+      <c r="G9">
+        <v>269</v>
+      </c>
+      <c r="H9">
+        <v>1904</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <v>0.481</v>
+      </c>
+      <c r="K9">
+        <v>0.648</v>
+      </c>
+      <c r="L9">
+        <v>0.842</v>
+      </c>
+      <c r="M9">
+        <v>0.552</v>
+      </c>
+      <c r="N9">
+        <v>-49.205</v>
+      </c>
+      <c r="O9">
+        <v>2.753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>1711241.43</v>
-      </c>
-      <c r="F3">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>987757.356</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>122</v>
+      </c>
+      <c r="H10">
+        <v>2222</v>
+      </c>
+      <c r="I10">
+        <v>113</v>
+      </c>
+      <c r="J10">
+        <v>0.45</v>
+      </c>
+      <c r="K10">
+        <v>0.469</v>
+      </c>
+      <c r="L10">
+        <v>0.908</v>
+      </c>
+      <c r="M10">
+        <v>0.46</v>
+      </c>
+      <c r="N10">
+        <v>-42.212</v>
+      </c>
+      <c r="O10">
+        <v>7.385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>570803.066</v>
+      </c>
+      <c r="F11">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>2289</v>
+      </c>
+      <c r="I11">
+        <v>140</v>
+      </c>
+      <c r="J11">
+        <v>0.57</v>
+      </c>
+      <c r="K11">
+        <v>0.343</v>
+      </c>
+      <c r="L11">
+        <v>0.924</v>
+      </c>
+      <c r="M11">
+        <v>0.428</v>
+      </c>
+      <c r="N11">
+        <v>42.212</v>
+      </c>
+      <c r="O11">
+        <v>-6.877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>2451</v>
-      </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>0.304</v>
-      </c>
-      <c r="K3">
-        <v>0.362</v>
-      </c>
-      <c r="L3">
-        <v>0.967</v>
-      </c>
-      <c r="M3">
-        <v>0.331</v>
-      </c>
-      <c r="N3">
-        <v>59.902</v>
-      </c>
-      <c r="O3">
-        <v>44.094</v>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1205510.24</v>
+      </c>
+      <c r="F12">
+        <v>69</v>
+      </c>
+      <c r="G12">
+        <v>199</v>
+      </c>
+      <c r="H12">
+        <v>2095</v>
+      </c>
+      <c r="I12">
+        <v>201</v>
+      </c>
+      <c r="J12">
+        <v>0.257</v>
+      </c>
+      <c r="K12">
+        <v>0.256</v>
+      </c>
+      <c r="L12">
+        <v>0.844</v>
+      </c>
+      <c r="M12">
+        <v>0.257</v>
+      </c>
+      <c r="N12">
+        <v>168.578</v>
+      </c>
+      <c r="O12">
+        <v>-4.341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>3237740.666</v>
+      </c>
+      <c r="F13">
+        <v>133</v>
+      </c>
+      <c r="G13">
+        <v>589</v>
+      </c>
+      <c r="H13">
+        <v>1705</v>
+      </c>
+      <c r="I13">
+        <v>137</v>
+      </c>
+      <c r="J13">
+        <v>0.184</v>
+      </c>
+      <c r="K13">
+        <v>0.493</v>
+      </c>
+      <c r="L13">
+        <v>0.717</v>
+      </c>
+      <c r="M13">
+        <v>0.268</v>
+      </c>
+      <c r="N13">
+        <v>-168.578</v>
+      </c>
+      <c r="O13">
+        <v>4.538</v>
       </c>
     </row>
   </sheetData>
